--- a/KonaKartWebsite/target/test-classes/testdata/productContent.xlsx
+++ b/KonaKartWebsite/target/test-classes/testdata/productContent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12855" windowHeight="4890"/>
+    <workbookView windowWidth="12855" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,19 +15,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>Product Description</t>
+  </si>
   <si>
     <t>World's most advanced 7" tablet
-1280x800 HD display with polarizing filter and anti-glare 
-technology for rich color and deep contrast from any viewing angle
-Exclusive Dolby audio and dual-driver stereo speakers 
-for immersive, virtual surround sound
-World's first tablet with dual-band, dual-antenna Wi-Fi for 40% faster downloads and streaming (compared to iPad 3)
-High performance 1.2 Ghz dual-core processor with Imagination PowerVR 3D graphics core for fast and fluid performance</t>
+1280x800 HD display with polarizing filter and anti-glare technology for rich color and deep contrast from any viewing angle</t>
   </si>
   <si>
-    <t>Add your product specifications here. By default, the Enterprise 
-version of KonaKart displays the template based custom attributes.</t>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>By default, the Enterprise version of KonaKart displays the template based custom attributes.</t>
+  </si>
+  <si>
+    <t>The De'Longhi BCO 410 is a 15 bar espresso/filter coffee machine that will ensure you get the perfect coffee experience, regardless of your tastes.</t>
   </si>
 </sst>
 </file>
@@ -37,10 +40,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,41 +52,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.35"/>
+      <color rgb="FF353E45"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -102,6 +81,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -111,14 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,23 +106,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,9 +143,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,25 +165,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,181 +218,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,16 +412,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -413,9 +438,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,32 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,178 +495,175 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,24 +983,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="81.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="62.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="122.285714285714" customWidth="1"/>
+    <col min="3" max="3" width="62.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="135" spans="1:2">
+    <row r="1" ht="30" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
